--- a/04_Modelling/01_benthic/01_BRUVs/01_BRT_richness_BRUVS/BRT_Outputs/contrib_mod_best_fixed_richness_tot_poisson.xlsx
+++ b/04_Modelling/01_benthic/01_BRUVs/01_BRT_richness_BRUVS/BRT_Outputs/contrib_mod_best_fixed_richness_tot_poisson.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,71 +372,161 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SummitRugosity</t>
+          <t>SummitDepth</t>
         </is>
       </c>
       <c r="B2">
-        <v>45.48165850083172</v>
+        <v>22.4609435803892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BottomDepth</t>
+          <t>SummitRugosity</t>
         </is>
       </c>
       <c r="B3">
-        <v>29.14359298898636</v>
+        <v>20.2855764218839</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SSTmean</t>
+          <t>BottomDepth</t>
         </is>
       </c>
       <c r="B4">
-        <v>10.2492150563531</v>
+        <v>16.49640386130557</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>TravelTime</t>
         </is>
       </c>
       <c r="B5">
-        <v>6.737806404501392</v>
+        <v>10.20860095606666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chla</t>
+          <t>ReefMinDist</t>
         </is>
       </c>
       <c r="B6">
-        <v>4.128183617122676</v>
+        <v>6.207849643388014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TravelTime</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="B7">
-        <v>2.266875590221579</v>
+        <v>4.058717502499538</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>SSTmean</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>3.655243367296447</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chla</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>3.468566489803219</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LandMinDist</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>3.158170781079091</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>seafloorTemp</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1.992667841983179</v>
+      <c r="B11">
+        <v>2.873452493519324</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SSTmax</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>2.010090935593971</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EastwardVelocity</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>1.84392330256052</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SuspendedParticulateMatter</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>1.321315204909019</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SummitAreaKm2</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>1.017172593191691</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NorthwardVelocity</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.9326543362957316</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.00131853021809763</v>
       </c>
     </row>
   </sheetData>
